--- a/data/trans_orig/P57C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91E07BD1-319A-449E-97FB-03D7A8C6063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9782FC18-2041-474D-AD37-C6A7762E9225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F3867FA-E6C4-4FE5-B6B9-A0B94BD1B959}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F77C1F75-9D00-4CC7-9095-0B3006E459D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="388">
   <si>
     <t>Población según si se ha sentido bien consigo mismo/a en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -92,22 +92,25 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -116,1033 +119,1012 @@
     <t>5,53%</t>
   </si>
   <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>3,23%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>7,87%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>9,8%</t>
@@ -1151,70 +1133,70 @@
     <t>11,31%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>9,28%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>45,11%</t>
   </si>
   <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
+    <t>42,16%</t>
   </si>
   <si>
     <t>48,5%</t>
   </si>
   <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
   </si>
   <si>
     <t>46,91%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
   </si>
   <si>
     <t>34,55%</t>
   </si>
   <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>37,99%</t>
   </si>
   <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1629,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EF7FBF-BA5B-46E6-AFBA-8B018AD69C38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA4FABD-3822-4AE3-8556-2D38B431D7D2}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1837,16 +1819,16 @@
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>16</v>
@@ -1855,13 +1837,13 @@
         <v>14395</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -1870,13 +1852,13 @@
         <v>16011</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -1885,19 +1867,19 @@
         <v>30406</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>267</v>
@@ -1906,13 +1888,13 @@
         <v>212925</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -1921,13 +1903,13 @@
         <v>221276</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>688</v>
@@ -1936,19 +1918,19 @@
         <v>434200</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>47</v>
@@ -1957,13 +1939,13 @@
         <v>31718</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -1972,13 +1954,13 @@
         <v>31147</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>119</v>
@@ -1987,13 +1969,13 @@
         <v>62865</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +1990,13 @@
         <v>260298</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
@@ -2023,13 +2005,13 @@
         <v>271403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>869</v>
@@ -2038,18 +2020,18 @@
         <v>531700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2061,13 +2043,13 @@
         <v>1462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2076,13 +2058,13 @@
         <v>2380</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2094,10 +2076,10 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,13 +2094,13 @@
         <v>9003</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2127,13 +2109,13 @@
         <v>7541</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -2142,19 +2124,19 @@
         <v>16544</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>25</v>
@@ -2163,13 +2145,13 @@
         <v>33713</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
@@ -2178,13 +2160,13 @@
         <v>49282</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>94</v>
@@ -2193,19 +2175,19 @@
         <v>82995</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>209</v>
@@ -2241,7 +2223,7 @@
         <v>626</v>
       </c>
       <c r="N13" s="7">
-        <v>594032</v>
+        <v>594031</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>86</v>
@@ -2256,7 +2238,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>140</v>
@@ -2316,13 +2298,13 @@
         <v>518227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
         <v>711</v>
@@ -2331,28 +2313,28 @@
         <v>548984</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>1092</v>
       </c>
       <c r="N15" s="7">
-        <v>1067211</v>
+        <v>1067210</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,13 +2402,13 @@
         <v>12832</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2435,10 +2417,10 @@
         <v>16604</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>112</v>
@@ -2462,7 +2444,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>45</v>
@@ -2513,7 +2495,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>131</v>
@@ -2564,7 +2546,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>161</v>
@@ -2624,13 +2606,13 @@
         <v>319867</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>533</v>
@@ -2639,13 +2621,13 @@
         <v>371444</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>890</v>
@@ -2654,13 +2636,13 @@
         <v>691311</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,7 +2680,7 @@
         <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -2707,13 +2689,13 @@
         <v>28119</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2710,13 @@
         <v>6911</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -2743,13 +2725,13 @@
         <v>14684</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -2758,19 +2740,19 @@
         <v>21595</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
         <v>56</v>
@@ -2779,13 +2761,13 @@
         <v>50369</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>130</v>
@@ -2794,13 +2776,13 @@
         <v>70017</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>186</v>
@@ -2809,19 +2791,19 @@
         <v>120386</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>76</v>
@@ -2830,13 +2812,13 @@
         <v>74563</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>179</v>
@@ -2845,13 +2827,13 @@
         <v>123518</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
@@ -2860,19 +2842,19 @@
         <v>198081</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>143</v>
@@ -2881,13 +2863,13 @@
         <v>177248</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>244</v>
@@ -2896,13 +2878,13 @@
         <v>203954</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>387</v>
@@ -2911,13 +2893,13 @@
         <v>381203</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2914,13 @@
         <v>321607</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>597</v>
@@ -2947,13 +2929,13 @@
         <v>427777</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>888</v>
@@ -2962,18 +2944,18 @@
         <v>749384</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2985,13 +2967,13 @@
         <v>1529</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3000,13 +2982,13 @@
         <v>959</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3018,10 +3000,10 @@
         <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3018,13 @@
         <v>6169</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -3051,13 +3033,13 @@
         <v>10485</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -3069,16 +3051,16 @@
         <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>19</v>
@@ -3087,13 +3069,13 @@
         <v>11527</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -3102,13 +3084,13 @@
         <v>13379</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>53</v>
@@ -3117,19 +3099,19 @@
         <v>24906</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>213</v>
@@ -3138,13 +3120,13 @@
         <v>149321</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H31" s="7">
         <v>395</v>
@@ -3153,13 +3135,13 @@
         <v>184080</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>608</v>
@@ -3168,19 +3150,19 @@
         <v>333401</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>35</v>
@@ -3189,13 +3171,13 @@
         <v>28202</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -3204,13 +3186,13 @@
         <v>22593</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>74</v>
@@ -3219,13 +3201,13 @@
         <v>50795</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3222,13 @@
         <v>196748</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>491</v>
@@ -3255,13 +3237,13 @@
         <v>231496</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>770</v>
@@ -3270,18 +3252,18 @@
         <v>428244</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3293,13 +3275,13 @@
         <v>5050</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -3308,13 +3290,13 @@
         <v>4140</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -3326,10 +3308,10 @@
         <v>105</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3326,13 @@
         <v>10478</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -3359,13 +3341,13 @@
         <v>13985</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M35" s="7">
         <v>45</v>
@@ -3374,19 +3356,19 @@
         <v>24463</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7">
         <v>50</v>
@@ -3395,13 +3377,13 @@
         <v>31260</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H36" s="7">
         <v>83</v>
@@ -3410,13 +3392,13 @@
         <v>38246</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>133</v>
@@ -3425,19 +3407,19 @@
         <v>69506</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>162</v>
@@ -3446,13 +3428,13 @@
         <v>115912</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>201</v>
@@ -3461,13 +3443,13 @@
         <v>114478</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>363</v>
@@ -3476,19 +3458,19 @@
         <v>230390</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>135</v>
@@ -3497,13 +3479,13 @@
         <v>114523</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H38" s="7">
         <v>141</v>
@@ -3512,13 +3494,13 @@
         <v>104772</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M38" s="7">
         <v>276</v>
@@ -3527,13 +3509,13 @@
         <v>219296</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3530,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H39" s="7">
         <v>460</v>
@@ -3563,13 +3545,13 @@
         <v>275622</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M39" s="7">
         <v>831</v>
@@ -3578,18 +3560,18 @@
         <v>552845</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3601,13 +3583,13 @@
         <v>6137</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="H40" s="7">
         <v>14</v>
@@ -3616,13 +3598,13 @@
         <v>12930</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M40" s="7">
         <v>19</v>
@@ -3631,13 +3613,13 @@
         <v>19067</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3634,13 @@
         <v>12830</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>281</v>
+        <v>19</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H41" s="7">
         <v>24</v>
@@ -3667,13 +3649,13 @@
         <v>18254</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>283</v>
+        <v>109</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="M41" s="7">
         <v>37</v>
@@ -3682,19 +3664,19 @@
         <v>31084</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7">
         <v>20</v>
@@ -3703,13 +3685,13 @@
         <v>17956</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="H42" s="7">
         <v>52</v>
@@ -3718,13 +3700,13 @@
         <v>40310</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="M42" s="7">
         <v>72</v>
@@ -3733,19 +3715,19 @@
         <v>58267</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7">
         <v>284</v>
@@ -3754,13 +3736,13 @@
         <v>300087</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H43" s="7">
         <v>447</v>
@@ -3769,13 +3751,13 @@
         <v>431784</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M43" s="7">
         <v>731</v>
@@ -3784,19 +3766,19 @@
         <v>731871</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="7">
         <v>277</v>
@@ -3805,13 +3787,13 @@
         <v>290744</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H44" s="7">
         <v>422</v>
@@ -3820,13 +3802,13 @@
         <v>300224</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M44" s="7">
         <v>699</v>
@@ -3835,13 +3817,13 @@
         <v>590968</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3838,13 @@
         <v>627754</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H45" s="7">
         <v>959</v>
@@ -3871,13 +3853,13 @@
         <v>803502</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M45" s="7">
         <v>1558</v>
@@ -3886,18 +3868,18 @@
         <v>1431256</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3909,13 +3891,13 @@
         <v>10338</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H46" s="7">
         <v>13</v>
@@ -3924,13 +3906,13 @@
         <v>9091</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>13</v>
+        <v>308</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="M46" s="7">
         <v>24</v>
@@ -3939,13 +3921,13 @@
         <v>19428</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>102</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3942,13 @@
         <v>42239</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H47" s="7">
         <v>108</v>
@@ -3975,13 +3957,13 @@
         <v>78114</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M47" s="7">
         <v>153</v>
@@ -3990,19 +3972,19 @@
         <v>120352</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C48" s="7">
         <v>110</v>
@@ -4011,13 +3993,13 @@
         <v>101867</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H48" s="7">
         <v>211</v>
@@ -4026,13 +4008,13 @@
         <v>157914</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M48" s="7">
         <v>321</v>
@@ -4041,19 +4023,19 @@
         <v>259780</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" s="7">
         <v>293</v>
@@ -4062,13 +4044,13 @@
         <v>287108</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H49" s="7">
         <v>385</v>
@@ -4077,13 +4059,13 @@
         <v>299017</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M49" s="7">
         <v>678</v>
@@ -4092,19 +4074,19 @@
         <v>586125</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" s="7">
         <v>303</v>
@@ -4113,13 +4095,13 @@
         <v>417877</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H50" s="7">
         <v>344</v>
@@ -4128,13 +4110,13 @@
         <v>323668</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M50" s="7">
         <v>647</v>
@@ -4143,13 +4125,13 @@
         <v>741545</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>128</v>
+        <v>346</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4146,13 @@
         <v>859428</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
@@ -4179,13 +4161,13 @@
         <v>867803</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M51" s="7">
         <v>1823</v>
@@ -4194,13 +4176,13 @@
         <v>1727231</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4199,13 @@
         <v>42255</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>352</v>
+        <v>63</v>
       </c>
       <c r="H52" s="7">
         <v>69</v>
@@ -4232,13 +4214,13 @@
         <v>51372</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M52" s="7">
         <v>109</v>
@@ -4247,13 +4229,13 @@
         <v>93626</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4250,13 @@
         <v>101722</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>18</v>
+        <v>355</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H53" s="7">
         <v>250</v>
@@ -4283,13 +4265,13 @@
         <v>162636</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>362</v>
+        <v>199</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M53" s="7">
         <v>364</v>
@@ -4298,19 +4280,19 @@
         <v>264359</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" s="7">
         <v>341</v>
@@ -4319,13 +4301,13 @@
         <v>296632</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H54" s="7">
         <v>682</v>
@@ -4334,13 +4316,13 @@
         <v>429733</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M54" s="7">
         <v>1023</v>
@@ -4349,19 +4331,19 @@
         <v>726365</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55" s="7">
         <v>1635</v>
@@ -4370,13 +4352,13 @@
         <v>1525335</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>377</v>
+        <v>248</v>
       </c>
       <c r="H55" s="7">
         <v>2668</v>
@@ -4385,13 +4367,13 @@
         <v>1842116</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M55" s="7">
         <v>4303</v>
@@ -4400,19 +4382,19 @@
         <v>3367451</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C56" s="7">
         <v>1241</v>
@@ -4421,13 +4403,13 @@
         <v>1415207</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H56" s="7">
         <v>1681</v>
@@ -4436,13 +4418,13 @@
         <v>1312174</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M56" s="7">
         <v>2922</v>
@@ -4451,13 +4433,13 @@
         <v>2727381</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4454,13 @@
         <v>3381152</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H57" s="7">
         <v>5350</v>
@@ -4487,13 +4469,13 @@
         <v>3798030</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M57" s="7">
         <v>8721</v>
@@ -4502,18 +4484,18 @@
         <v>7179182</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9782FC18-2041-474D-AD37-C6A7762E9225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62943073-CEB0-48E5-B882-A4C47D4908CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F77C1F75-9D00-4CC7-9095-0B3006E459D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{888AC4DA-D4D8-4910-8CA1-70DBEA9AC853}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1611,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA4FABD-3822-4AE3-8556-2D38B431D7D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD0914E-9E1D-4385-A1EE-159CDA79274F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62943073-CEB0-48E5-B882-A4C47D4908CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDB8C406-8BAB-40D8-B615-99C4C443BF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{888AC4DA-D4D8-4910-8CA1-70DBEA9AC853}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E572782-4432-4769-8242-9F3B386ABB31}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="394">
   <si>
     <t>Población según si se ha sentido bien consigo mismo/a en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -92,25 +92,22 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -119,28 +116,28 @@
     <t>5,53%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>De acuerdo</t>
@@ -149,28 +146,28 @@
     <t>81,8%</t>
   </si>
   <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>81,53%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>Muy de acuerdo</t>
@@ -179,28 +176,28 @@
     <t>12,19%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -212,991 +209,1012 @@
     <t>0,28%</t>
   </si>
   <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
   </si>
   <si>
     <t>47,1%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
     <t>48,5%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>46,91%</t>
   </si>
   <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
   </si>
   <si>
     <t>34,55%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
   </si>
   <si>
     <t>37,99%</t>
   </si>
   <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1611,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD0914E-9E1D-4385-A1EE-159CDA79274F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A582816-CF8D-42CA-8CFF-DD3BFF1F3B73}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1819,16 +1837,16 @@
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>16</v>
@@ -1837,13 +1855,13 @@
         <v>14395</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -1852,13 +1870,13 @@
         <v>16011</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -1867,19 +1885,19 @@
         <v>30406</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>267</v>
@@ -1888,13 +1906,13 @@
         <v>212925</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -1903,13 +1921,13 @@
         <v>221276</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>688</v>
@@ -1918,19 +1936,19 @@
         <v>434200</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>47</v>
@@ -1939,13 +1957,13 @@
         <v>31718</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -1954,13 +1972,13 @@
         <v>31147</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>119</v>
@@ -1969,13 +1987,13 @@
         <v>62865</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,13 +2008,13 @@
         <v>260298</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
@@ -2005,13 +2023,13 @@
         <v>271403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>869</v>
@@ -2020,18 +2038,18 @@
         <v>531700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2043,13 +2061,13 @@
         <v>1462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2058,13 +2076,13 @@
         <v>2380</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2076,10 +2094,10 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,13 +2112,13 @@
         <v>9003</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2109,13 +2127,13 @@
         <v>7541</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -2124,19 +2142,19 @@
         <v>16544</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
         <v>25</v>
@@ -2145,13 +2163,13 @@
         <v>33713</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
@@ -2160,13 +2178,13 @@
         <v>49282</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>94</v>
@@ -2175,19 +2193,19 @@
         <v>82995</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
         <v>209</v>
@@ -2223,7 +2241,7 @@
         <v>626</v>
       </c>
       <c r="N13" s="7">
-        <v>594031</v>
+        <v>594032</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>86</v>
@@ -2238,7 +2256,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
         <v>140</v>
@@ -2298,13 +2316,13 @@
         <v>518227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>711</v>
@@ -2313,28 +2331,28 @@
         <v>548984</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>1092</v>
       </c>
       <c r="N15" s="7">
-        <v>1067210</v>
+        <v>1067211</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2420,13 @@
         <v>12832</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2417,10 +2435,10 @@
         <v>16604</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>112</v>
@@ -2444,7 +2462,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>45</v>
@@ -2495,7 +2513,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>131</v>
@@ -2546,7 +2564,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
         <v>161</v>
@@ -2606,13 +2624,13 @@
         <v>319867</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>533</v>
@@ -2621,13 +2639,13 @@
         <v>371444</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>890</v>
@@ -2636,13 +2654,13 @@
         <v>691311</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,7 +2698,7 @@
         <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -2689,13 +2707,13 @@
         <v>28119</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2728,13 @@
         <v>6911</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -2725,13 +2743,13 @@
         <v>14684</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -2740,19 +2758,19 @@
         <v>21595</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
         <v>56</v>
@@ -2761,13 +2779,13 @@
         <v>50369</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>130</v>
@@ -2776,13 +2794,13 @@
         <v>70017</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>186</v>
@@ -2791,19 +2809,19 @@
         <v>120386</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7">
         <v>76</v>
@@ -2812,13 +2830,13 @@
         <v>74563</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>179</v>
@@ -2827,13 +2845,13 @@
         <v>123518</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
@@ -2842,19 +2860,19 @@
         <v>198081</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>143</v>
@@ -2863,13 +2881,13 @@
         <v>177248</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>244</v>
@@ -2878,13 +2896,13 @@
         <v>203954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>387</v>
@@ -2893,13 +2911,13 @@
         <v>381203</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2932,13 @@
         <v>321607</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>597</v>
@@ -2929,13 +2947,13 @@
         <v>427777</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>888</v>
@@ -2944,18 +2962,18 @@
         <v>749384</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2967,13 +2985,13 @@
         <v>1529</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2982,13 +3000,13 @@
         <v>959</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3000,10 +3018,10 @@
         <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3036,13 @@
         <v>6169</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -3033,13 +3051,13 @@
         <v>10485</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -3051,16 +3069,16 @@
         <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>19</v>
@@ -3069,13 +3087,13 @@
         <v>11527</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -3084,13 +3102,13 @@
         <v>13379</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>53</v>
@@ -3099,19 +3117,19 @@
         <v>24906</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7">
         <v>213</v>
@@ -3120,13 +3138,13 @@
         <v>149321</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>395</v>
@@ -3135,13 +3153,13 @@
         <v>184080</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>608</v>
@@ -3150,19 +3168,19 @@
         <v>333401</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
         <v>35</v>
@@ -3171,13 +3189,13 @@
         <v>28202</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -3186,13 +3204,13 @@
         <v>22593</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>74</v>
@@ -3201,13 +3219,13 @@
         <v>50795</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3240,13 @@
         <v>196748</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>491</v>
@@ -3237,13 +3255,13 @@
         <v>231496</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>770</v>
@@ -3252,18 +3270,18 @@
         <v>428244</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3275,13 +3293,13 @@
         <v>5050</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -3290,13 +3308,13 @@
         <v>4140</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -3308,10 +3326,10 @@
         <v>105</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3344,13 @@
         <v>10478</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -3341,13 +3359,13 @@
         <v>13985</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>45</v>
@@ -3356,19 +3374,19 @@
         <v>24463</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7">
         <v>50</v>
@@ -3377,13 +3395,13 @@
         <v>31260</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>83</v>
@@ -3392,13 +3410,13 @@
         <v>38246</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>133</v>
@@ -3407,19 +3425,19 @@
         <v>69506</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="7">
         <v>162</v>
@@ -3428,13 +3446,13 @@
         <v>115912</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>201</v>
@@ -3443,13 +3461,13 @@
         <v>114478</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>363</v>
@@ -3458,19 +3476,19 @@
         <v>230390</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7">
         <v>135</v>
@@ -3479,13 +3497,13 @@
         <v>114523</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H38" s="7">
         <v>141</v>
@@ -3494,13 +3512,13 @@
         <v>104772</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M38" s="7">
         <v>276</v>
@@ -3509,13 +3527,13 @@
         <v>219296</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3548,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>460</v>
@@ -3545,13 +3563,13 @@
         <v>275622</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>831</v>
@@ -3560,18 +3578,18 @@
         <v>552845</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3583,13 +3601,13 @@
         <v>6137</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="H40" s="7">
         <v>14</v>
@@ -3598,13 +3616,13 @@
         <v>12930</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>19</v>
@@ -3613,13 +3631,13 @@
         <v>19067</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3652,13 @@
         <v>12830</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>24</v>
@@ -3649,13 +3667,13 @@
         <v>18254</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>37</v>
@@ -3664,19 +3682,19 @@
         <v>31084</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="7">
         <v>20</v>
@@ -3685,13 +3703,13 @@
         <v>17956</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="H42" s="7">
         <v>52</v>
@@ -3700,13 +3718,13 @@
         <v>40310</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>281</v>
+        <v>26</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="M42" s="7">
         <v>72</v>
@@ -3715,19 +3733,19 @@
         <v>58267</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="7">
         <v>284</v>
@@ -3736,13 +3754,13 @@
         <v>300087</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H43" s="7">
         <v>447</v>
@@ -3751,13 +3769,13 @@
         <v>431784</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M43" s="7">
         <v>731</v>
@@ -3766,19 +3784,19 @@
         <v>731871</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="7">
         <v>277</v>
@@ -3787,13 +3805,13 @@
         <v>290744</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>422</v>
@@ -3802,13 +3820,13 @@
         <v>300224</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>699</v>
@@ -3817,13 +3835,13 @@
         <v>590968</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>96</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3856,13 @@
         <v>627754</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H45" s="7">
         <v>959</v>
@@ -3853,13 +3871,13 @@
         <v>803502</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M45" s="7">
         <v>1558</v>
@@ -3868,18 +3886,18 @@
         <v>1431256</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3891,13 +3909,13 @@
         <v>10338</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H46" s="7">
         <v>13</v>
@@ -3906,13 +3924,13 @@
         <v>9091</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>308</v>
+        <v>13</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>309</v>
+        <v>23</v>
       </c>
       <c r="M46" s="7">
         <v>24</v>
@@ -3921,13 +3939,13 @@
         <v>19428</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>267</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3960,13 @@
         <v>42239</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H47" s="7">
         <v>108</v>
@@ -3957,13 +3975,13 @@
         <v>78114</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M47" s="7">
         <v>153</v>
@@ -3972,19 +3990,19 @@
         <v>120352</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>319</v>
+        <v>115</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="7">
         <v>110</v>
@@ -3993,13 +4011,13 @@
         <v>101867</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H48" s="7">
         <v>211</v>
@@ -4008,13 +4026,13 @@
         <v>157914</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M48" s="7">
         <v>321</v>
@@ -4023,19 +4041,19 @@
         <v>259780</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="7">
         <v>293</v>
@@ -4044,13 +4062,13 @@
         <v>287108</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H49" s="7">
         <v>385</v>
@@ -4059,13 +4077,13 @@
         <v>299017</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M49" s="7">
         <v>678</v>
@@ -4074,19 +4092,19 @@
         <v>586125</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="7">
         <v>303</v>
@@ -4095,13 +4113,13 @@
         <v>417877</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H50" s="7">
         <v>344</v>
@@ -4110,13 +4128,13 @@
         <v>323668</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M50" s="7">
         <v>647</v>
@@ -4125,13 +4143,13 @@
         <v>741545</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>346</v>
+        <v>128</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4164,13 @@
         <v>859428</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
@@ -4161,13 +4179,13 @@
         <v>867803</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M51" s="7">
         <v>1823</v>
@@ -4176,13 +4194,13 @@
         <v>1727231</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4217,13 @@
         <v>42255</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>348</v>
+        <v>69</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>63</v>
+        <v>352</v>
       </c>
       <c r="H52" s="7">
         <v>69</v>
@@ -4214,13 +4232,13 @@
         <v>51372</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M52" s="7">
         <v>109</v>
@@ -4229,13 +4247,13 @@
         <v>93626</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>58</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4268,13 @@
         <v>101722</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>355</v>
+        <v>18</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H53" s="7">
         <v>250</v>
@@ -4265,13 +4283,13 @@
         <v>162636</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>199</v>
+        <v>362</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M53" s="7">
         <v>364</v>
@@ -4280,19 +4298,19 @@
         <v>264359</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>283</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" s="7">
         <v>341</v>
@@ -4301,13 +4319,13 @@
         <v>296632</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H54" s="7">
         <v>682</v>
@@ -4316,13 +4334,13 @@
         <v>429733</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M54" s="7">
         <v>1023</v>
@@ -4331,19 +4349,19 @@
         <v>726365</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" s="7">
         <v>1635</v>
@@ -4352,13 +4370,13 @@
         <v>1525335</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>248</v>
+        <v>377</v>
       </c>
       <c r="H55" s="7">
         <v>2668</v>
@@ -4367,13 +4385,13 @@
         <v>1842116</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M55" s="7">
         <v>4303</v>
@@ -4382,19 +4400,19 @@
         <v>3367451</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="7">
         <v>1241</v>
@@ -4403,13 +4421,13 @@
         <v>1415207</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H56" s="7">
         <v>1681</v>
@@ -4418,13 +4436,13 @@
         <v>1312174</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M56" s="7">
         <v>2922</v>
@@ -4433,13 +4451,13 @@
         <v>2727381</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4472,13 @@
         <v>3381152</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H57" s="7">
         <v>5350</v>
@@ -4469,13 +4487,13 @@
         <v>3798030</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M57" s="7">
         <v>8721</v>
@@ -4484,18 +4502,18 @@
         <v>7179182</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDB8C406-8BAB-40D8-B615-99C4C443BF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4F06A5F-CB5F-4413-96DC-D25BE29F206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E572782-4432-4769-8242-9F3B386ABB31}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{04CF6990-C786-4F56-B2AA-4F3A8765A0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="393">
   <si>
     <t>Población según si se ha sentido bien consigo mismo/a en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -89,1132 +89,1129 @@
     <t>En desacuerdo</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1629,7 +1626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A582816-CF8D-42CA-8CFF-DD3BFF1F3B73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F5A561-C8CC-436F-A0F8-2336C5B93A97}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1801,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1260</v>
+        <v>1591</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1816,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>2969</v>
+        <v>3094</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
@@ -1831,169 +1828,169 @@
         <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>4229</v>
+        <v>4685</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>14395</v>
+        <v>16599</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
       </c>
       <c r="I6" s="7">
-        <v>16011</v>
+        <v>16512</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>30406</v>
+        <v>33111</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>267</v>
       </c>
       <c r="D7" s="7">
-        <v>212925</v>
+        <v>256195</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
       </c>
       <c r="I7" s="7">
-        <v>221276</v>
+        <v>236849</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>688</v>
       </c>
       <c r="N7" s="7">
-        <v>434200</v>
+        <v>493042</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>47</v>
       </c>
       <c r="D8" s="7">
-        <v>31718</v>
+        <v>37059</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
       </c>
       <c r="I8" s="7">
-        <v>31147</v>
+        <v>33181</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>119</v>
       </c>
       <c r="N8" s="7">
-        <v>62865</v>
+        <v>70239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,51 +2002,51 @@
         <v>331</v>
       </c>
       <c r="D9" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
       </c>
       <c r="I9" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>869</v>
       </c>
       <c r="N9" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2058,46 +2055,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1462</v>
+        <v>1495</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2380</v>
+        <v>2287</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>3842</v>
+        <v>3783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,199 +2106,199 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>9003</v>
+        <v>9038</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>7541</v>
+        <v>7003</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>16544</v>
+        <v>16041</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>33713</v>
+        <v>33680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
       </c>
       <c r="I12" s="7">
-        <v>49282</v>
+        <v>45680</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>94</v>
       </c>
       <c r="N12" s="7">
-        <v>82995</v>
+        <v>79360</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>209</v>
       </c>
       <c r="D13" s="7">
-        <v>274420</v>
+        <v>273166</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>417</v>
       </c>
       <c r="I13" s="7">
-        <v>319611</v>
+        <v>297349</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>626</v>
       </c>
       <c r="N13" s="7">
-        <v>594032</v>
+        <v>570515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>140</v>
       </c>
       <c r="D14" s="7">
-        <v>199629</v>
+        <v>200013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>212</v>
       </c>
       <c r="I14" s="7">
-        <v>170169</v>
+        <v>157893</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>352</v>
       </c>
       <c r="N14" s="7">
-        <v>369798</v>
+        <v>357907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,51 +2310,51 @@
         <v>381</v>
       </c>
       <c r="D15" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
         <v>711</v>
       </c>
       <c r="I15" s="7">
-        <v>548984</v>
+        <v>510212</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>1092</v>
       </c>
       <c r="N15" s="7">
-        <v>1067211</v>
+        <v>1027605</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2366,46 +2363,46 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>5225</v>
+        <v>5007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>6268</v>
+        <v>5760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>11493</v>
+        <v>10767</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,199 +2414,199 @@
         <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>12832</v>
+        <v>12568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>16604</v>
+        <v>15509</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
       </c>
       <c r="N17" s="7">
-        <v>29436</v>
+        <v>28077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>35545</v>
+        <v>34580</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
       </c>
       <c r="I18" s="7">
-        <v>44574</v>
+        <v>41925</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>110</v>
       </c>
       <c r="N18" s="7">
-        <v>80119</v>
+        <v>76505</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>131</v>
       </c>
       <c r="D19" s="7">
-        <v>111000</v>
+        <v>107627</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>223</v>
       </c>
       <c r="I19" s="7">
-        <v>148352</v>
+        <v>138114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>354</v>
       </c>
       <c r="N19" s="7">
-        <v>259351</v>
+        <v>245741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>161</v>
       </c>
       <c r="D20" s="7">
-        <v>155265</v>
+        <v>153996</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
       </c>
       <c r="I20" s="7">
-        <v>155646</v>
+        <v>146127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>368</v>
       </c>
       <c r="N20" s="7">
-        <v>310912</v>
+        <v>300124</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,51 +2618,51 @@
         <v>357</v>
       </c>
       <c r="D21" s="7">
-        <v>319867</v>
+        <v>313777</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>533</v>
       </c>
       <c r="I21" s="7">
-        <v>371444</v>
+        <v>347435</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>890</v>
       </c>
       <c r="N21" s="7">
-        <v>691311</v>
+        <v>661213</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2674,46 +2671,46 @@
         <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>12515</v>
+        <v>12098</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>15604</v>
+        <v>14401</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
       </c>
       <c r="N22" s="7">
-        <v>28119</v>
+        <v>26499</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,199 +2722,199 @@
         <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>6911</v>
+        <v>6600</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
       </c>
       <c r="I23" s="7">
-        <v>14684</v>
+        <v>13724</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
       </c>
       <c r="N23" s="7">
-        <v>21595</v>
+        <v>20323</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
         <v>56</v>
       </c>
       <c r="D24" s="7">
-        <v>50369</v>
+        <v>47775</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>130</v>
       </c>
       <c r="I24" s="7">
-        <v>70017</v>
+        <v>65164</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>186</v>
       </c>
       <c r="N24" s="7">
-        <v>120386</v>
+        <v>112939</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>76</v>
       </c>
       <c r="D25" s="7">
-        <v>74563</v>
+        <v>71570</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>179</v>
       </c>
       <c r="I25" s="7">
-        <v>123518</v>
+        <v>138306</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
       </c>
       <c r="N25" s="7">
-        <v>198081</v>
+        <v>209875</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>143</v>
       </c>
       <c r="D26" s="7">
-        <v>177248</v>
+        <v>173920</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>244</v>
       </c>
       <c r="I26" s="7">
-        <v>203954</v>
+        <v>243385</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>387</v>
       </c>
       <c r="N26" s="7">
-        <v>381203</v>
+        <v>417305</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,51 +2926,51 @@
         <v>291</v>
       </c>
       <c r="D27" s="7">
-        <v>321607</v>
+        <v>311963</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>597</v>
       </c>
       <c r="I27" s="7">
-        <v>427777</v>
+        <v>474979</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>888</v>
       </c>
       <c r="N27" s="7">
-        <v>749384</v>
+        <v>786941</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2982,22 +2979,22 @@
         <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>1529</v>
+        <v>1387</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>959</v>
+        <v>872</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>191</v>
@@ -3012,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="N28" s="7">
-        <v>2487</v>
+        <v>2259</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>13</v>
@@ -3033,10 +3030,10 @@
         <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>6169</v>
+        <v>5562</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>195</v>
@@ -3048,7 +3045,7 @@
         <v>21</v>
       </c>
       <c r="I29" s="7">
-        <v>10485</v>
+        <v>9189</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>197</v>
@@ -3063,169 +3060,169 @@
         <v>31</v>
       </c>
       <c r="N29" s="7">
-        <v>16655</v>
+        <v>14751</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>19</v>
       </c>
       <c r="D30" s="7">
-        <v>11527</v>
+        <v>10457</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
       </c>
       <c r="I30" s="7">
-        <v>13379</v>
+        <v>12182</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>53</v>
       </c>
       <c r="N30" s="7">
-        <v>24906</v>
+        <v>22640</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>213</v>
       </c>
       <c r="D31" s="7">
-        <v>149321</v>
+        <v>135811</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>395</v>
       </c>
       <c r="I31" s="7">
-        <v>184080</v>
+        <v>166123</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>608</v>
       </c>
       <c r="N31" s="7">
-        <v>333401</v>
+        <v>301934</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>35</v>
       </c>
       <c r="D32" s="7">
-        <v>28202</v>
+        <v>25525</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
       </c>
       <c r="I32" s="7">
-        <v>22593</v>
+        <v>19908</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>74</v>
       </c>
       <c r="N32" s="7">
-        <v>50795</v>
+        <v>45434</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,51 +3234,51 @@
         <v>279</v>
       </c>
       <c r="D33" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>491</v>
       </c>
       <c r="I33" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>770</v>
       </c>
       <c r="N33" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3290,40 +3287,40 @@
         <v>6</v>
       </c>
       <c r="D34" s="7">
-        <v>5050</v>
+        <v>4802</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
       </c>
       <c r="I34" s="7">
-        <v>4140</v>
+        <v>3863</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
       </c>
       <c r="N34" s="7">
-        <v>9190</v>
+        <v>8665</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>234</v>
@@ -3341,199 +3338,199 @@
         <v>18</v>
       </c>
       <c r="D35" s="7">
-        <v>10478</v>
+        <v>9987</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
       </c>
       <c r="I35" s="7">
-        <v>13985</v>
+        <v>12978</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>45</v>
       </c>
       <c r="N35" s="7">
-        <v>24463</v>
+        <v>22965</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7">
         <v>50</v>
       </c>
       <c r="D36" s="7">
-        <v>31260</v>
+        <v>29988</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>83</v>
       </c>
       <c r="I36" s="7">
-        <v>38246</v>
+        <v>35838</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>133</v>
       </c>
       <c r="N36" s="7">
-        <v>69506</v>
+        <v>65826</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>162</v>
       </c>
       <c r="D37" s="7">
-        <v>115912</v>
+        <v>112799</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>201</v>
       </c>
       <c r="I37" s="7">
-        <v>114478</v>
+        <v>106593</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>143</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>363</v>
       </c>
       <c r="N37" s="7">
-        <v>230390</v>
+        <v>219392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>135</v>
       </c>
       <c r="D38" s="7">
-        <v>114523</v>
+        <v>112059</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H38" s="7">
         <v>141</v>
       </c>
       <c r="I38" s="7">
-        <v>104772</v>
+        <v>97785</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M38" s="7">
         <v>276</v>
       </c>
       <c r="N38" s="7">
-        <v>219296</v>
+        <v>209844</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,51 +3542,51 @@
         <v>371</v>
       </c>
       <c r="D39" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H39" s="7">
         <v>460</v>
       </c>
       <c r="I39" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M39" s="7">
         <v>831</v>
       </c>
       <c r="N39" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3598,13 +3595,13 @@
         <v>5</v>
       </c>
       <c r="D40" s="7">
-        <v>6137</v>
+        <v>6019</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>272</v>
+        <v>61</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>273</v>
@@ -3613,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="I40" s="7">
-        <v>12930</v>
+        <v>11420</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>274</v>
@@ -3628,16 +3625,16 @@
         <v>19</v>
       </c>
       <c r="N40" s="7">
-        <v>19067</v>
+        <v>17439</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,88 +3646,88 @@
         <v>13</v>
       </c>
       <c r="D41" s="7">
-        <v>12830</v>
+        <v>12244</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>24</v>
       </c>
       <c r="I41" s="7">
-        <v>18254</v>
+        <v>16861</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>152</v>
       </c>
       <c r="M41" s="7">
         <v>37</v>
       </c>
       <c r="N41" s="7">
-        <v>31084</v>
+        <v>29106</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>287</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7">
         <v>20</v>
       </c>
       <c r="D42" s="7">
-        <v>17956</v>
+        <v>17089</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="H42" s="7">
         <v>52</v>
       </c>
       <c r="I42" s="7">
-        <v>40310</v>
+        <v>37622</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M42" s="7">
         <v>72</v>
       </c>
       <c r="N42" s="7">
-        <v>58267</v>
+        <v>54711</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>291</v>
@@ -3745,103 +3742,103 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7">
         <v>284</v>
       </c>
       <c r="D43" s="7">
-        <v>300087</v>
+        <v>297144</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>294</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H43" s="7">
         <v>447</v>
       </c>
       <c r="I43" s="7">
-        <v>431784</v>
+        <v>504030</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M43" s="7">
         <v>731</v>
       </c>
       <c r="N43" s="7">
-        <v>731871</v>
+        <v>801175</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="7">
         <v>277</v>
       </c>
       <c r="D44" s="7">
-        <v>290744</v>
+        <v>291783</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H44" s="7">
         <v>422</v>
       </c>
       <c r="I44" s="7">
-        <v>300224</v>
+        <v>278688</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M44" s="7">
         <v>699</v>
       </c>
       <c r="N44" s="7">
-        <v>590968</v>
+        <v>570471</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,51 +3850,51 @@
         <v>599</v>
       </c>
       <c r="D45" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H45" s="7">
         <v>959</v>
       </c>
       <c r="I45" s="7">
-        <v>803502</v>
+        <v>848623</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M45" s="7">
         <v>1558</v>
       </c>
       <c r="N45" s="7">
-        <v>1431256</v>
+        <v>1472902</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3906,46 +3903,46 @@
         <v>11</v>
       </c>
       <c r="D46" s="7">
-        <v>10338</v>
+        <v>8602</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>13</v>
       </c>
       <c r="I46" s="7">
-        <v>9091</v>
+        <v>7682</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>314</v>
+        <v>19</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>13</v>
+        <v>316</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M46" s="7">
         <v>24</v>
       </c>
       <c r="N46" s="7">
-        <v>19428</v>
+        <v>16285</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,199 +3954,199 @@
         <v>45</v>
       </c>
       <c r="D47" s="7">
-        <v>42239</v>
+        <v>35767</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H47" s="7">
         <v>108</v>
       </c>
       <c r="I47" s="7">
-        <v>78114</v>
+        <v>65351</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M47" s="7">
         <v>153</v>
       </c>
       <c r="N47" s="7">
-        <v>120352</v>
+        <v>101118</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>115</v>
+        <v>291</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C48" s="7">
         <v>110</v>
       </c>
       <c r="D48" s="7">
-        <v>101867</v>
+        <v>86698</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H48" s="7">
         <v>211</v>
       </c>
       <c r="I48" s="7">
-        <v>157914</v>
+        <v>130840</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M48" s="7">
         <v>321</v>
       </c>
       <c r="N48" s="7">
-        <v>259780</v>
+        <v>217538</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" s="7">
         <v>293</v>
       </c>
       <c r="D49" s="7">
-        <v>287108</v>
+        <v>244486</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H49" s="7">
         <v>385</v>
       </c>
       <c r="I49" s="7">
-        <v>299017</v>
+        <v>248222</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M49" s="7">
         <v>678</v>
       </c>
       <c r="N49" s="7">
-        <v>586125</v>
+        <v>492708</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" s="7">
         <v>303</v>
       </c>
       <c r="D50" s="7">
-        <v>417877</v>
+        <v>553166</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H50" s="7">
         <v>344</v>
       </c>
       <c r="I50" s="7">
-        <v>323668</v>
+        <v>265095</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M50" s="7">
         <v>647</v>
       </c>
       <c r="N50" s="7">
-        <v>741545</v>
+        <v>818261</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,46 +4158,46 @@
         <v>762</v>
       </c>
       <c r="D51" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
       </c>
       <c r="I51" s="7">
-        <v>867803</v>
+        <v>717189</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M51" s="7">
         <v>1823</v>
       </c>
       <c r="N51" s="7">
-        <v>1727231</v>
+        <v>1645909</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,46 +4211,46 @@
         <v>40</v>
       </c>
       <c r="D52" s="7">
-        <v>42255</v>
+        <v>39411</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>352</v>
+        <v>70</v>
       </c>
       <c r="H52" s="7">
         <v>69</v>
       </c>
       <c r="I52" s="7">
-        <v>51372</v>
+        <v>46285</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M52" s="7">
         <v>109</v>
       </c>
       <c r="N52" s="7">
-        <v>93626</v>
+        <v>85695</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>358</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4262,13 @@
         <v>114</v>
       </c>
       <c r="D53" s="7">
-        <v>101722</v>
+        <v>93358</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>360</v>
@@ -4280,7 +4277,7 @@
         <v>250</v>
       </c>
       <c r="I53" s="7">
-        <v>162636</v>
+        <v>143707</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>361</v>
@@ -4295,169 +4292,169 @@
         <v>364</v>
       </c>
       <c r="N53" s="7">
-        <v>264359</v>
+        <v>237065</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>364</v>
       </c>
       <c r="P53" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" s="7">
         <v>341</v>
       </c>
       <c r="D54" s="7">
-        <v>296632</v>
+        <v>276865</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H54" s="7">
         <v>682</v>
       </c>
       <c r="I54" s="7">
-        <v>429733</v>
+        <v>385763</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K54" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="L54" s="7" t="s">
-        <v>372</v>
+        <v>52</v>
       </c>
       <c r="M54" s="7">
         <v>1023</v>
       </c>
       <c r="N54" s="7">
-        <v>726365</v>
+        <v>662629</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55" s="7">
         <v>1635</v>
       </c>
       <c r="D55" s="7">
-        <v>1525335</v>
+        <v>1498798</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H55" s="7">
         <v>2668</v>
       </c>
       <c r="I55" s="7">
-        <v>1842116</v>
+        <v>1835584</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M55" s="7">
         <v>4303</v>
       </c>
       <c r="N55" s="7">
-        <v>3367451</v>
+        <v>3334382</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C56" s="7">
         <v>1241</v>
       </c>
       <c r="D56" s="7">
-        <v>1415207</v>
+        <v>1547522</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H56" s="7">
         <v>1681</v>
       </c>
       <c r="I56" s="7">
-        <v>1312174</v>
+        <v>1242062</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M56" s="7">
         <v>2922</v>
       </c>
       <c r="N56" s="7">
-        <v>2727381</v>
+        <v>2789584</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,51 +4466,51 @@
         <v>3371</v>
       </c>
       <c r="D57" s="7">
-        <v>3381152</v>
+        <v>3455954</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H57" s="7">
         <v>5350</v>
       </c>
       <c r="I57" s="7">
-        <v>3798030</v>
+        <v>3653401</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M57" s="7">
         <v>8721</v>
       </c>
       <c r="N57" s="7">
-        <v>7179182</v>
+        <v>7109355</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
